--- a/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_빅데이터.xlsx
+++ b/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_빅데이터.xlsx
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>38</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>74</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>54</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>55</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>59</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>88</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>57</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>47</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>76</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>78</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>222</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>245</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>200</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>79</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>237</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>55</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>38</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>53</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>54</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>57</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>88</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>59</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>47</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>39</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>245</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>79</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>177</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>118</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>194</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>200</v>
